--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.5658195</v>
+        <v>19.965993</v>
       </c>
       <c r="H2">
-        <v>49.13163900000001</v>
+        <v>39.931986</v>
       </c>
       <c r="I2">
-        <v>0.5389713294808646</v>
+        <v>0.830421748489526</v>
       </c>
       <c r="J2">
-        <v>0.4504525342927069</v>
+        <v>0.7841446493282378</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.582462</v>
+        <v>10.7520165</v>
       </c>
       <c r="N2">
-        <v>33.16492400000001</v>
+        <v>21.504033</v>
       </c>
       <c r="O2">
-        <v>0.5920264449676317</v>
+        <v>0.8445837386956813</v>
       </c>
       <c r="P2">
-        <v>0.4964849860290766</v>
+        <v>0.7931018318470318</v>
       </c>
       <c r="Q2">
-        <v>407.3617683576092</v>
+        <v>214.6746861748845</v>
       </c>
       <c r="R2">
-        <v>1629.447073430437</v>
+        <v>858.698744699538</v>
       </c>
       <c r="S2">
-        <v>0.3190852801320344</v>
+        <v>0.7013607050334886</v>
       </c>
       <c r="T2">
-        <v>0.2236429201950768</v>
+        <v>0.6219065578152737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.5658195</v>
+        <v>19.965993</v>
       </c>
       <c r="H3">
-        <v>49.13163900000001</v>
+        <v>39.931986</v>
       </c>
       <c r="I3">
-        <v>0.5389713294808646</v>
+        <v>0.830421748489526</v>
       </c>
       <c r="J3">
-        <v>0.4504525342927069</v>
+        <v>0.7841446493282378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.871388</v>
       </c>
       <c r="O3">
-        <v>0.05797270473061601</v>
+        <v>0.1275511153241899</v>
       </c>
       <c r="P3">
-        <v>0.07292557049496663</v>
+        <v>0.1796642865288408</v>
       </c>
       <c r="Q3">
-        <v>39.889879440822</v>
+        <v>32.420699569428</v>
       </c>
       <c r="R3">
-        <v>239.339276644932</v>
+        <v>194.524197416568</v>
       </c>
       <c r="S3">
-        <v>0.03124562574226172</v>
+        <v>0.1059212202093029</v>
       </c>
       <c r="T3">
-        <v>0.03284950804419917</v>
+        <v>0.1408827889569659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.5658195</v>
+        <v>19.965993</v>
       </c>
       <c r="H4">
-        <v>49.13163900000001</v>
+        <v>39.931986</v>
       </c>
       <c r="I4">
-        <v>0.5389713294808646</v>
+        <v>0.830421748489526</v>
       </c>
       <c r="J4">
-        <v>0.4504525342927069</v>
+        <v>0.7841446493282378</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08579666666666665</v>
+        <v>0.022442</v>
       </c>
       <c r="N4">
-        <v>0.25739</v>
+        <v>0.067326</v>
       </c>
       <c r="O4">
-        <v>0.003063109419864164</v>
+        <v>0.001762845905585104</v>
       </c>
       <c r="P4">
-        <v>0.003853175437821718</v>
+        <v>0.002483086495027852</v>
       </c>
       <c r="Q4">
-        <v>2.107665427035</v>
+        <v>0.448076814906</v>
       </c>
       <c r="R4">
-        <v>12.64599256221</v>
+        <v>2.688460889436</v>
       </c>
       <c r="S4">
-        <v>0.001650928156369548</v>
+        <v>0.001463905579233584</v>
       </c>
       <c r="T4">
-        <v>0.001735672641041203</v>
+        <v>0.001947098988895298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.5658195</v>
+        <v>19.965993</v>
       </c>
       <c r="H5">
-        <v>49.13163900000001</v>
+        <v>39.931986</v>
       </c>
       <c r="I5">
-        <v>0.5389713294808646</v>
+        <v>0.830421748489526</v>
       </c>
       <c r="J5">
-        <v>0.4504525342927069</v>
+        <v>0.7841446493282378</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.647081</v>
+        <v>0.325801</v>
       </c>
       <c r="N5">
-        <v>1.294162</v>
+        <v>0.651602</v>
       </c>
       <c r="O5">
-        <v>0.02310206192760159</v>
+        <v>0.02559205769920384</v>
       </c>
       <c r="P5">
-        <v>0.01937384214989794</v>
+        <v>0.02403208457851556</v>
       </c>
       <c r="Q5">
-        <v>15.8960750478795</v>
+        <v>6.504940485393001</v>
       </c>
       <c r="R5">
-        <v>63.58430019151801</v>
+        <v>26.019761941572</v>
       </c>
       <c r="S5">
-        <v>0.01245134903086869</v>
+        <v>0.02125220130201768</v>
       </c>
       <c r="T5">
-        <v>0.008726996295408391</v>
+        <v>0.01884463053444663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.5658195</v>
+        <v>19.965993</v>
       </c>
       <c r="H6">
-        <v>49.13163900000001</v>
+        <v>39.931986</v>
       </c>
       <c r="I6">
-        <v>0.5389713294808646</v>
+        <v>0.830421748489526</v>
       </c>
       <c r="J6">
-        <v>0.4504525342927069</v>
+        <v>0.7841446493282378</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.787035000000001</v>
+        <v>0.006495666666666667</v>
       </c>
       <c r="N6">
-        <v>26.361105</v>
+        <v>0.019487</v>
       </c>
       <c r="O6">
-        <v>0.31371439855289</v>
+        <v>0.0005102423753399418</v>
       </c>
       <c r="P6">
-        <v>0.3946305695630727</v>
+        <v>0.0007187105505838421</v>
       </c>
       <c r="Q6">
-        <v>215.8607157501825</v>
+        <v>0.129692435197</v>
       </c>
       <c r="R6">
-        <v>1295.164294501095</v>
+        <v>0.778154611182</v>
       </c>
       <c r="S6">
-        <v>0.1690830664653409</v>
+        <v>0.0004237163654832435</v>
       </c>
       <c r="T6">
-        <v>0.1777623401690605</v>
+        <v>0.0005635730326560716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.815447</v>
+      </c>
+      <c r="H7">
+        <v>8.446341</v>
+      </c>
+      <c r="I7">
+        <v>0.117099531213879</v>
+      </c>
+      <c r="J7">
+        <v>0.1658608490334469</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>24.5658195</v>
-      </c>
-      <c r="H7">
-        <v>49.13163900000001</v>
-      </c>
-      <c r="I7">
-        <v>0.5389713294808646</v>
-      </c>
-      <c r="J7">
-        <v>0.4504525342927069</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2834936666666667</v>
+        <v>10.7520165</v>
       </c>
       <c r="N7">
-        <v>0.850481</v>
+        <v>21.504033</v>
       </c>
       <c r="O7">
-        <v>0.0101212804013967</v>
+        <v>0.8445837386956813</v>
       </c>
       <c r="P7">
-        <v>0.01273185632516435</v>
+        <v>0.7931018318470318</v>
       </c>
       <c r="Q7">
-        <v>6.964254244726502</v>
+        <v>30.2717325988755</v>
       </c>
       <c r="R7">
-        <v>41.785525468359</v>
+        <v>181.630395593253</v>
       </c>
       <c r="S7">
-        <v>0.005455079953989395</v>
+        <v>0.0989003598721296</v>
       </c>
       <c r="T7">
-        <v>0.005735096947920913</v>
+        <v>0.1315445432001308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>8.446341</v>
       </c>
       <c r="I8">
-        <v>0.06177059196714002</v>
+        <v>0.117099531213879</v>
       </c>
       <c r="J8">
-        <v>0.07743840397733109</v>
+        <v>0.1658608490334469</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.582462</v>
+        <v>1.623796</v>
       </c>
       <c r="N8">
-        <v>33.16492400000001</v>
+        <v>4.871388</v>
       </c>
       <c r="O8">
-        <v>0.5920264449676317</v>
+        <v>0.1275511153241899</v>
       </c>
       <c r="P8">
-        <v>0.4964849860290766</v>
+        <v>0.1796642865288408</v>
       </c>
       <c r="Q8">
-        <v>46.68704289051401</v>
+        <v>4.571711576812</v>
       </c>
       <c r="R8">
-        <v>280.1222573430841</v>
+        <v>41.145404191308</v>
       </c>
       <c r="S8">
-        <v>0.03656982396585205</v>
+        <v>0.01493617581027006</v>
       </c>
       <c r="T8">
-        <v>0.03844700491679922</v>
+        <v>0.02979927110466202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>8.446341</v>
       </c>
       <c r="I9">
-        <v>0.06177059196714002</v>
+        <v>0.117099531213879</v>
       </c>
       <c r="J9">
-        <v>0.07743840397733109</v>
+        <v>0.1658608490334469</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.623796</v>
+        <v>0.022442</v>
       </c>
       <c r="N9">
-        <v>4.871388</v>
+        <v>0.067326</v>
       </c>
       <c r="O9">
-        <v>0.05797270473061601</v>
+        <v>0.001762845905585104</v>
       </c>
       <c r="P9">
-        <v>0.07292557049496663</v>
+        <v>0.002483086495027852</v>
       </c>
       <c r="Q9">
-        <v>4.571711576812</v>
+        <v>0.06318426157400001</v>
       </c>
       <c r="R9">
-        <v>41.145404191308</v>
+        <v>0.568658354166</v>
       </c>
       <c r="S9">
-        <v>0.003581008289146369</v>
+        <v>0.0002064284291463218</v>
       </c>
       <c r="T9">
-        <v>0.005647239788266563</v>
+        <v>0.0004118468342888055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>8.446341</v>
       </c>
       <c r="I10">
-        <v>0.06177059196714002</v>
+        <v>0.117099531213879</v>
       </c>
       <c r="J10">
-        <v>0.07743840397733109</v>
+        <v>0.1658608490334469</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08579666666666665</v>
+        <v>0.325801</v>
       </c>
       <c r="N10">
-        <v>0.25739</v>
+        <v>0.651602</v>
       </c>
       <c r="O10">
-        <v>0.003063109419864164</v>
+        <v>0.02559205769920384</v>
       </c>
       <c r="P10">
-        <v>0.003853175437821718</v>
+        <v>0.02403208457851556</v>
       </c>
       <c r="Q10">
-        <v>0.2415559677766666</v>
+        <v>0.9172754480470001</v>
       </c>
       <c r="R10">
-        <v>2.17400370999</v>
+        <v>5.503652688282</v>
       </c>
       <c r="S10">
-        <v>0.0001892100821251323</v>
+        <v>0.002996817959375313</v>
       </c>
       <c r="T10">
-        <v>0.0002983837561495678</v>
+        <v>0.003985981952236197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>8.446341</v>
       </c>
       <c r="I11">
-        <v>0.06177059196714002</v>
+        <v>0.117099531213879</v>
       </c>
       <c r="J11">
-        <v>0.07743840397733109</v>
+        <v>0.1658608490334469</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.647081</v>
+        <v>0.006495666666666667</v>
       </c>
       <c r="N11">
-        <v>1.294162</v>
+        <v>0.019487</v>
       </c>
       <c r="O11">
-        <v>0.02310206192760159</v>
+        <v>0.0005102423753399418</v>
       </c>
       <c r="P11">
-        <v>0.01937384214989794</v>
+        <v>0.0007187105505838421</v>
       </c>
       <c r="Q11">
-        <v>1.821822260207</v>
+        <v>0.01828820522966667</v>
       </c>
       <c r="R11">
-        <v>10.930933561242</v>
+        <v>0.164593847067</v>
       </c>
       <c r="S11">
-        <v>0.001427028040929478</v>
+        <v>5.97491429577633E-05</v>
       </c>
       <c r="T11">
-        <v>0.001500279414996841</v>
+        <v>0.0001192059421291322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,87 +1154,87 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.815447</v>
+        <v>0.003851666666666666</v>
       </c>
       <c r="H12">
-        <v>8.446341</v>
+        <v>0.011555</v>
       </c>
       <c r="I12">
-        <v>0.06177059196714002</v>
+        <v>0.0001601977806930092</v>
       </c>
       <c r="J12">
-        <v>0.07743840397733109</v>
+        <v>0.0002269056045193391</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.787035000000001</v>
+        <v>10.7520165</v>
       </c>
       <c r="N12">
-        <v>26.361105</v>
+        <v>21.504033</v>
       </c>
       <c r="O12">
-        <v>0.31371439855289</v>
+        <v>0.8445837386956813</v>
       </c>
       <c r="P12">
-        <v>0.3946305695630727</v>
+        <v>0.7931018318470318</v>
       </c>
       <c r="Q12">
-        <v>24.739431329645</v>
+        <v>0.0414131835525</v>
       </c>
       <c r="R12">
-        <v>222.654881966805</v>
+        <v>0.248479101315</v>
       </c>
       <c r="S12">
-        <v>0.01937832410722731</v>
+        <v>0.0001353004405484526</v>
       </c>
       <c r="T12">
-        <v>0.03055956146762949</v>
+        <v>0.000179959250600646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.815447</v>
+        <v>0.003851666666666666</v>
       </c>
       <c r="H13">
-        <v>8.446341</v>
+        <v>0.011555</v>
       </c>
       <c r="I13">
-        <v>0.06177059196714002</v>
+        <v>0.0001601977806930092</v>
       </c>
       <c r="J13">
-        <v>0.07743840397733109</v>
+        <v>0.0002269056045193391</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2834936666666667</v>
+        <v>1.623796</v>
       </c>
       <c r="N13">
-        <v>0.850481</v>
+        <v>4.871388</v>
       </c>
       <c r="O13">
-        <v>0.0101212804013967</v>
+        <v>0.1275511153241899</v>
       </c>
       <c r="P13">
-        <v>0.01273185632516435</v>
+        <v>0.1796642865288408</v>
       </c>
       <c r="Q13">
-        <v>0.7981613933356668</v>
+        <v>0.006254320926666665</v>
       </c>
       <c r="R13">
-        <v>7.183452540021</v>
+        <v>0.05628888833999999</v>
       </c>
       <c r="S13">
-        <v>0.0006251974818596865</v>
+        <v>2.04334055998533E-05</v>
       </c>
       <c r="T13">
-        <v>0.0009859346334894154</v>
+        <v>4.076683354536238E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.007919333333333334</v>
+        <v>0.003851666666666666</v>
       </c>
       <c r="H14">
-        <v>0.023758</v>
+        <v>0.011555</v>
       </c>
       <c r="I14">
-        <v>0.0001737492866976733</v>
+        <v>0.0001601977806930092</v>
       </c>
       <c r="J14">
-        <v>0.0002178199532428814</v>
+        <v>0.0002269056045193391</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>16.582462</v>
+        <v>0.022442</v>
       </c>
       <c r="N14">
-        <v>33.16492400000001</v>
+        <v>0.067326</v>
       </c>
       <c r="O14">
-        <v>0.5920264449676317</v>
+        <v>0.001762845905585104</v>
       </c>
       <c r="P14">
-        <v>0.4964849860290766</v>
+        <v>0.002483086495027852</v>
       </c>
       <c r="Q14">
-        <v>0.1313220440653334</v>
+        <v>8.643910333333334E-05</v>
       </c>
       <c r="R14">
-        <v>0.7879322643920001</v>
+        <v>0.0007779519299999999</v>
       </c>
       <c r="S14">
-        <v>0.0001028641725192853</v>
+        <v>2.824040017784917E-07</v>
       </c>
       <c r="T14">
-        <v>0.0001081443364426461</v>
+        <v>5.634262422281016E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,46 +1349,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.007919333333333334</v>
+        <v>0.003851666666666666</v>
       </c>
       <c r="H15">
-        <v>0.023758</v>
+        <v>0.011555</v>
       </c>
       <c r="I15">
-        <v>0.0001737492866976733</v>
+        <v>0.0001601977806930092</v>
       </c>
       <c r="J15">
-        <v>0.0002178199532428814</v>
+        <v>0.0002269056045193391</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.623796</v>
+        <v>0.325801</v>
       </c>
       <c r="N15">
-        <v>4.871388</v>
+        <v>0.651602</v>
       </c>
       <c r="O15">
-        <v>0.05797270473061601</v>
+        <v>0.02559205769920384</v>
       </c>
       <c r="P15">
-        <v>0.07292557049496663</v>
+        <v>0.02403208457851556</v>
       </c>
       <c r="Q15">
-        <v>0.01285938178933333</v>
+        <v>0.001254876851666667</v>
       </c>
       <c r="R15">
-        <v>0.115734436104</v>
+        <v>0.007529261109999999</v>
       </c>
       <c r="S15">
-        <v>1.007271609487936E-05</v>
+        <v>4.099790846779895E-06</v>
       </c>
       <c r="T15">
-        <v>1.588464435542409E-05</v>
+        <v>5.453014679147959E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,51 +1411,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.007919333333333334</v>
+        <v>0.003851666666666666</v>
       </c>
       <c r="H16">
-        <v>0.023758</v>
+        <v>0.011555</v>
       </c>
       <c r="I16">
-        <v>0.0001737492866976733</v>
+        <v>0.0001601977806930092</v>
       </c>
       <c r="J16">
-        <v>0.0002178199532428814</v>
+        <v>0.0002269056045193391</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08579666666666665</v>
+        <v>0.006495666666666667</v>
       </c>
       <c r="N16">
-        <v>0.25739</v>
+        <v>0.019487</v>
       </c>
       <c r="O16">
-        <v>0.003063109419864164</v>
+        <v>0.0005102423753399418</v>
       </c>
       <c r="P16">
-        <v>0.003853175437821718</v>
+        <v>0.0007187105505838421</v>
       </c>
       <c r="Q16">
-        <v>0.0006794524022222221</v>
+        <v>2.501914277777778E-05</v>
       </c>
       <c r="R16">
-        <v>0.006115071619999999</v>
+        <v>0.000225172285</v>
       </c>
       <c r="S16">
-        <v>5.322130767783223E-07</v>
+        <v>8.17396961449881E-08</v>
       </c>
       <c r="T16">
-        <v>8.392984937029456E-07</v>
+        <v>1.630794519546537E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.007919333333333334</v>
+        <v>1.2393355</v>
       </c>
       <c r="H17">
-        <v>0.023758</v>
+        <v>2.478671</v>
       </c>
       <c r="I17">
-        <v>0.0001737492866976733</v>
+        <v>0.05154620423212315</v>
       </c>
       <c r="J17">
-        <v>0.0002178199532428814</v>
+        <v>0.04867367733964127</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.647081</v>
+        <v>10.7520165</v>
       </c>
       <c r="N17">
-        <v>1.294162</v>
+        <v>21.504033</v>
       </c>
       <c r="O17">
-        <v>0.02310206192760159</v>
+        <v>0.8445837386956813</v>
       </c>
       <c r="P17">
-        <v>0.01937384214989794</v>
+        <v>0.7931018318470318</v>
       </c>
       <c r="Q17">
-        <v>0.005124450132666667</v>
+        <v>13.32535574503575</v>
       </c>
       <c r="R17">
-        <v>0.030746700796</v>
+        <v>53.30142298014301</v>
       </c>
       <c r="S17">
-        <v>4.013966781166251E-06</v>
+        <v>0.04353508588593771</v>
       </c>
       <c r="T17">
-        <v>4.220009391225734E-06</v>
+        <v>0.03860318266080085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.007919333333333334</v>
+        <v>1.2393355</v>
       </c>
       <c r="H18">
-        <v>0.023758</v>
+        <v>2.478671</v>
       </c>
       <c r="I18">
-        <v>0.0001737492866976733</v>
+        <v>0.05154620423212315</v>
       </c>
       <c r="J18">
-        <v>0.0002178199532428814</v>
+        <v>0.04867367733964127</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.787035000000001</v>
+        <v>1.623796</v>
       </c>
       <c r="N18">
-        <v>26.361105</v>
+        <v>4.871388</v>
       </c>
       <c r="O18">
-        <v>0.31371439855289</v>
+        <v>0.1275511153241899</v>
       </c>
       <c r="P18">
-        <v>0.3946305695630727</v>
+        <v>0.1796642865288408</v>
       </c>
       <c r="Q18">
-        <v>0.06958745917666669</v>
+        <v>2.012428027558</v>
       </c>
       <c r="R18">
-        <v>0.6262871325900001</v>
+        <v>12.074568165348</v>
       </c>
       <c r="S18">
-        <v>5.450765297535423E-05</v>
+        <v>0.006574775840535783</v>
       </c>
       <c r="T18">
-        <v>8.595841221044017E-05</v>
+        <v>0.008744921511961656</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.2393355</v>
+      </c>
+      <c r="H19">
+        <v>2.478671</v>
+      </c>
+      <c r="I19">
+        <v>0.05154620423212315</v>
+      </c>
+      <c r="J19">
+        <v>0.04867367733964127</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.007919333333333334</v>
-      </c>
-      <c r="H19">
-        <v>0.023758</v>
-      </c>
-      <c r="I19">
-        <v>0.0001737492866976733</v>
-      </c>
-      <c r="J19">
-        <v>0.0002178199532428814</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.2834936666666667</v>
+        <v>0.022442</v>
       </c>
       <c r="N19">
-        <v>0.850481</v>
+        <v>0.067326</v>
       </c>
       <c r="O19">
-        <v>0.0101212804013967</v>
+        <v>0.001762845905585104</v>
       </c>
       <c r="P19">
-        <v>0.01273185632516435</v>
+        <v>0.002483086495027852</v>
       </c>
       <c r="Q19">
-        <v>0.002245080844222223</v>
+        <v>0.02781316729100001</v>
       </c>
       <c r="R19">
-        <v>0.020205727598</v>
+        <v>0.166879003746</v>
       </c>
       <c r="S19">
-        <v>1.758565250209816E-06</v>
+        <v>9.086801507905184E-05</v>
       </c>
       <c r="T19">
-        <v>2.773252349442384E-06</v>
+        <v>0.0001208609508654064</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.0996985</v>
+        <v>1.2393355</v>
       </c>
       <c r="H20">
-        <v>6.199396999999999</v>
+        <v>2.478671</v>
       </c>
       <c r="I20">
-        <v>0.06800703805280509</v>
+        <v>0.05154620423212315</v>
       </c>
       <c r="J20">
-        <v>0.05683779630751996</v>
+        <v>0.04867367733964127</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.582462</v>
+        <v>0.325801</v>
       </c>
       <c r="N20">
-        <v>33.16492400000001</v>
+        <v>0.651602</v>
       </c>
       <c r="O20">
-        <v>0.5920264449676317</v>
+        <v>0.02559205769920384</v>
       </c>
       <c r="P20">
-        <v>0.4964849860290766</v>
+        <v>0.02403208457851556</v>
       </c>
       <c r="Q20">
-        <v>51.400632587707</v>
+        <v>0.4037767452355001</v>
       </c>
       <c r="R20">
-        <v>205.602530350828</v>
+        <v>1.615106980942</v>
       </c>
       <c r="S20">
-        <v>0.04026196497118064</v>
+        <v>0.001319173432883441</v>
       </c>
       <c r="T20">
-        <v>0.02821911250566255</v>
+        <v>0.001169729930573635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.0996985</v>
+        <v>1.2393355</v>
       </c>
       <c r="H21">
-        <v>6.199396999999999</v>
+        <v>2.478671</v>
       </c>
       <c r="I21">
-        <v>0.06800703805280509</v>
+        <v>0.05154620423212315</v>
       </c>
       <c r="J21">
-        <v>0.05683779630751996</v>
+        <v>0.04867367733964127</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.623796</v>
+        <v>0.006495666666666667</v>
       </c>
       <c r="N21">
-        <v>4.871388</v>
+        <v>0.019487</v>
       </c>
       <c r="O21">
-        <v>0.05797270473061601</v>
+        <v>0.0005102423753399418</v>
       </c>
       <c r="P21">
-        <v>0.07292557049496663</v>
+        <v>0.0007187105505838421</v>
       </c>
       <c r="Q21">
-        <v>5.033278025505999</v>
+        <v>0.008050310296166667</v>
       </c>
       <c r="R21">
-        <v>30.19966815303599</v>
+        <v>0.04830186177700001</v>
       </c>
       <c r="S21">
-        <v>0.003942551936639036</v>
+        <v>2.630105768715628E-05</v>
       </c>
       <c r="T21">
-        <v>0.004144928721402601</v>
+        <v>3.498228543971386E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1774,60 +1774,60 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.018569</v>
+      </c>
+      <c r="H22">
+        <v>0.055707</v>
+      </c>
+      <c r="I22">
+        <v>0.0007723182837789238</v>
+      </c>
+      <c r="J22">
+        <v>0.00109391869415481</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.0996985</v>
-      </c>
-      <c r="H22">
-        <v>6.199396999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.06800703805280509</v>
-      </c>
-      <c r="J22">
-        <v>0.05683779630751996</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.08579666666666665</v>
+        <v>10.7520165</v>
       </c>
       <c r="N22">
-        <v>0.25739</v>
+        <v>21.504033</v>
       </c>
       <c r="O22">
-        <v>0.003063109419864164</v>
+        <v>0.8445837386956813</v>
       </c>
       <c r="P22">
-        <v>0.003853175437821718</v>
+        <v>0.7931018318470318</v>
       </c>
       <c r="Q22">
-        <v>0.2659437989716666</v>
+        <v>0.1996541943885</v>
       </c>
       <c r="R22">
-        <v>1.59566279383</v>
+        <v>1.197925166331</v>
       </c>
       <c r="S22">
-        <v>0.0002083129988766079</v>
+        <v>0.0006522874635770356</v>
       </c>
       <c r="T22">
-        <v>0.0002190060006720498</v>
+        <v>0.0008675889202258923</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1836,60 +1836,60 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.0996985</v>
+        <v>0.018569</v>
       </c>
       <c r="H23">
-        <v>6.199396999999999</v>
+        <v>0.055707</v>
       </c>
       <c r="I23">
-        <v>0.06800703805280509</v>
+        <v>0.0007723182837789238</v>
       </c>
       <c r="J23">
-        <v>0.05683779630751996</v>
+        <v>0.00109391869415481</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.647081</v>
+        <v>1.623796</v>
       </c>
       <c r="N23">
-        <v>1.294162</v>
+        <v>4.871388</v>
       </c>
       <c r="O23">
-        <v>0.02310206192760159</v>
+        <v>0.1275511153241899</v>
       </c>
       <c r="P23">
-        <v>0.01937384214989794</v>
+        <v>0.1796642865288408</v>
       </c>
       <c r="Q23">
-        <v>2.0057560050785</v>
+        <v>0.03015226792399999</v>
       </c>
       <c r="R23">
-        <v>8.023024020313999</v>
+        <v>0.271370411316</v>
       </c>
       <c r="S23">
-        <v>0.001571102804608661</v>
+        <v>9.851005848126589E-05</v>
       </c>
       <c r="T23">
-        <v>0.001101166493809944</v>
+        <v>0.0001965381217058851</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1898,117 +1898,117 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.0996985</v>
+        <v>0.018569</v>
       </c>
       <c r="H24">
-        <v>6.199396999999999</v>
+        <v>0.055707</v>
       </c>
       <c r="I24">
-        <v>0.06800703805280509</v>
+        <v>0.0007723182837789238</v>
       </c>
       <c r="J24">
-        <v>0.05683779630751996</v>
+        <v>0.00109391869415481</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>8.787035000000001</v>
+        <v>0.022442</v>
       </c>
       <c r="N24">
-        <v>26.361105</v>
+        <v>0.067326</v>
       </c>
       <c r="O24">
-        <v>0.31371439855289</v>
+        <v>0.001762845905585104</v>
       </c>
       <c r="P24">
-        <v>0.3946305695630727</v>
+        <v>0.002483086495027852</v>
       </c>
       <c r="Q24">
-        <v>27.2371592089475</v>
+        <v>0.000416725498</v>
       </c>
       <c r="R24">
-        <v>163.422955253685</v>
+        <v>0.003750529482</v>
       </c>
       <c r="S24">
-        <v>0.02133478704009925</v>
+        <v>1.36147812436819E-06</v>
       </c>
       <c r="T24">
-        <v>0.02242993192954651</v>
+        <v>2.716294736114311E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.018569</v>
+      </c>
+      <c r="H25">
+        <v>0.055707</v>
+      </c>
+      <c r="I25">
+        <v>0.0007723182837789238</v>
+      </c>
+      <c r="J25">
+        <v>0.00109391869415481</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.0996985</v>
-      </c>
-      <c r="H25">
-        <v>6.199396999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.06800703805280509</v>
-      </c>
-      <c r="J25">
-        <v>0.05683779630751996</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2834936666666667</v>
+        <v>0.325801</v>
       </c>
       <c r="N25">
-        <v>0.850481</v>
+        <v>0.651602</v>
       </c>
       <c r="O25">
-        <v>0.0101212804013967</v>
+        <v>0.02559205769920384</v>
       </c>
       <c r="P25">
-        <v>0.01273185632516435</v>
+        <v>0.02403208457851556</v>
       </c>
       <c r="Q25">
-        <v>0.8787448933261667</v>
+        <v>0.006049798768999999</v>
       </c>
       <c r="R25">
-        <v>5.272469359956999</v>
+        <v>0.036298792614</v>
       </c>
       <c r="S25">
-        <v>0.0006883183014008954</v>
+        <v>1.97652140806203E-05</v>
       </c>
       <c r="T25">
-        <v>0.0007236506564263011</v>
+        <v>2.628914657994767E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,365 +2022,55 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>15.09019966666667</v>
+        <v>0.018569</v>
       </c>
       <c r="H26">
-        <v>45.270599</v>
+        <v>0.055707</v>
       </c>
       <c r="I26">
-        <v>0.3310772912124926</v>
+        <v>0.0007723182837789238</v>
       </c>
       <c r="J26">
-        <v>0.4150534454691991</v>
+        <v>0.00109391869415481</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>16.582462</v>
+        <v>0.006495666666666667</v>
       </c>
       <c r="N26">
-        <v>33.16492400000001</v>
+        <v>0.019487</v>
       </c>
       <c r="O26">
-        <v>0.5920264449676317</v>
+        <v>0.0005102423753399418</v>
       </c>
       <c r="P26">
-        <v>0.4964849860290766</v>
+        <v>0.0007187105505838421</v>
       </c>
       <c r="Q26">
-        <v>250.2326625449127</v>
+        <v>0.0001206180343333333</v>
       </c>
       <c r="R26">
-        <v>1501.395975269476</v>
+        <v>0.001085562309</v>
       </c>
       <c r="S26">
-        <v>0.1960065117260453</v>
+        <v>3.940695156338253E-07</v>
       </c>
       <c r="T26">
-        <v>0.2060678040750955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>15.09019966666667</v>
-      </c>
-      <c r="H27">
-        <v>45.270599</v>
-      </c>
-      <c r="I27">
-        <v>0.3310772912124926</v>
-      </c>
-      <c r="J27">
-        <v>0.4150534454691991</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.623796</v>
-      </c>
-      <c r="N27">
-        <v>4.871388</v>
-      </c>
-      <c r="O27">
-        <v>0.05797270473061601</v>
-      </c>
-      <c r="P27">
-        <v>0.07292557049496663</v>
-      </c>
-      <c r="Q27">
-        <v>24.50340585793466</v>
-      </c>
-      <c r="R27">
-        <v>220.530652721412</v>
-      </c>
-      <c r="S27">
-        <v>0.019193446046474</v>
-      </c>
-      <c r="T27">
-        <v>0.03026800929674287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>15.09019966666667</v>
-      </c>
-      <c r="H28">
-        <v>45.270599</v>
-      </c>
-      <c r="I28">
-        <v>0.3310772912124926</v>
-      </c>
-      <c r="J28">
-        <v>0.4150534454691991</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.08579666666666665</v>
-      </c>
-      <c r="N28">
-        <v>0.25739</v>
-      </c>
-      <c r="O28">
-        <v>0.003063109419864164</v>
-      </c>
-      <c r="P28">
-        <v>0.003853175437821718</v>
-      </c>
-      <c r="Q28">
-        <v>1.294688830734444</v>
-      </c>
-      <c r="R28">
-        <v>11.65219947661</v>
-      </c>
-      <c r="S28">
-        <v>0.001014125969416097</v>
-      </c>
-      <c r="T28">
-        <v>0.001599273741465194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>15.09019966666667</v>
-      </c>
-      <c r="H29">
-        <v>45.270599</v>
-      </c>
-      <c r="I29">
-        <v>0.3310772912124926</v>
-      </c>
-      <c r="J29">
-        <v>0.4150534454691991</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.647081</v>
-      </c>
-      <c r="N29">
-        <v>1.294162</v>
-      </c>
-      <c r="O29">
-        <v>0.02310206192760159</v>
-      </c>
-      <c r="P29">
-        <v>0.01937384214989794</v>
-      </c>
-      <c r="Q29">
-        <v>9.764581490506332</v>
-      </c>
-      <c r="R29">
-        <v>58.587488943038</v>
-      </c>
-      <c r="S29">
-        <v>0.00764856808441359</v>
-      </c>
-      <c r="T29">
-        <v>0.008041179936291536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>15.09019966666667</v>
-      </c>
-      <c r="H30">
-        <v>45.270599</v>
-      </c>
-      <c r="I30">
-        <v>0.3310772912124926</v>
-      </c>
-      <c r="J30">
-        <v>0.4150534454691991</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>8.787035000000001</v>
-      </c>
-      <c r="N30">
-        <v>26.361105</v>
-      </c>
-      <c r="O30">
-        <v>0.31371439855289</v>
-      </c>
-      <c r="P30">
-        <v>0.3946305695630727</v>
-      </c>
-      <c r="Q30">
-        <v>132.5981126279883</v>
-      </c>
-      <c r="R30">
-        <v>1193.383013651895</v>
-      </c>
-      <c r="S30">
-        <v>0.1038637132872471</v>
-      </c>
-      <c r="T30">
-        <v>0.1637927775846258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>15.09019966666667</v>
-      </c>
-      <c r="H31">
-        <v>45.270599</v>
-      </c>
-      <c r="I31">
-        <v>0.3310772912124926</v>
-      </c>
-      <c r="J31">
-        <v>0.4150534454691991</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2834936666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.850481</v>
-      </c>
-      <c r="O31">
-        <v>0.0101212804013967</v>
-      </c>
-      <c r="P31">
-        <v>0.01273185632516435</v>
-      </c>
-      <c r="Q31">
-        <v>4.277976034235444</v>
-      </c>
-      <c r="R31">
-        <v>38.501784308119</v>
-      </c>
-      <c r="S31">
-        <v>0.003350926098896508</v>
-      </c>
-      <c r="T31">
-        <v>0.005284400834978281</v>
+        <v>7.862109069699607E-07</v>
       </c>
     </row>
   </sheetData>
